--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -635,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1118,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1138,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1158,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1178,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1198,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1218,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1238,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1258,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1278,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1298,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1318,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1338,7 @@
         <v>105.85</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J38">
         <v>105.85</v>
@@ -1355,7 +1358,7 @@
         <v>31.78</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1372,7 @@
         <v>58.71</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1383,7 +1386,7 @@
         <v>56.86</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1397,7 +1400,7 @@
         <v>55.15</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1411,7 +1414,7 @@
         <v>56.25</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1425,7 +1428,7 @@
         <v>55.32</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1439,7 +1442,7 @@
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1453,7 +1456,7 @@
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1473,7 +1476,7 @@
         <v>105.85</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J47">
         <v>105.85</v>
@@ -1493,7 +1496,7 @@
         <v>31.78</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1507,7 +1510,7 @@
         <v>58.71</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1521,7 +1524,7 @@
         <v>56.86</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1535,7 +1538,7 @@
         <v>55.15</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1549,7 +1552,7 @@
         <v>56.25</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1563,7 +1566,7 @@
         <v>55.32</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1577,7 +1580,7 @@
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1591,7 +1594,133 @@
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>31.78</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>58.71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58">
+        <v>56.86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59">
+        <v>55.15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60">
+        <v>56.25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>55.32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>51.65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>41.53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
         <v>58</v>
+      </c>
+      <c r="D64">
+        <v>62.15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>159</v>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -626,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>162.71</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>139.57</v>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>95.14</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>98.70999999999999</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>47.57</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>40.43</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>15.71</v>
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>22.29</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>12.29</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>10.57</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>5.29</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>8.140000000000001</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>5.43</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>6.86</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>6.43</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>6.29</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>4.43</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>7.29</v>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>24.71</v>
@@ -1078,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>17.29</v>
@@ -1098,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>26.71</v>
@@ -1118,7 +1124,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>31.14</v>
@@ -1138,7 +1144,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>51.43</v>
@@ -1158,7 +1164,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>57.14</v>
@@ -1178,7 +1184,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>72.56999999999999</v>
@@ -1198,7 +1204,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>76.86</v>
@@ -1218,7 +1224,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>87.70999999999999</v>
@@ -1238,7 +1244,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>108.57</v>
@@ -1258,7 +1264,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>114.86</v>
@@ -1278,7 +1284,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>94.70999999999999</v>
@@ -1298,7 +1304,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>124.71</v>
@@ -1318,7 +1324,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1326,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>166</v>
@@ -1338,7 +1344,7 @@
         <v>105.85</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J38">
         <v>105.85</v>
@@ -1352,13 +1358,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>145.43</v>
       </c>
       <c r="D39">
         <v>31.78</v>
       </c>
+      <c r="E39">
+        <v>113.65</v>
+      </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="J39">
+        <v>109.75</v>
+      </c>
+      <c r="K39">
+        <v>70.95999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1366,13 +1384,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>58.71</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1380,13 +1398,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>56.86</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1394,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>55.15</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1408,13 +1426,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>56.25</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1422,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>55.32</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1436,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1450,13 +1468,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1464,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>166</v>
@@ -1476,13 +1494,13 @@
         <v>105.85</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J47">
-        <v>105.85</v>
+        <v>108.45</v>
       </c>
       <c r="K47">
-        <v>63.76</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1490,237 +1508,387 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>145.43</v>
       </c>
       <c r="D48">
         <v>31.78</v>
       </c>
+      <c r="E48">
+        <v>113.65</v>
+      </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="J48">
+        <v>109.75</v>
+      </c>
+      <c r="K48">
+        <v>70.95999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49">
         <v>58.71</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <v>56.86</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>55.15</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52">
         <v>56.25</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>55.32</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>145.43</v>
       </c>
       <c r="D56">
         <v>31.78</v>
       </c>
+      <c r="E56">
+        <v>113.65</v>
+      </c>
       <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="J56">
+        <v>110.53</v>
+      </c>
+      <c r="K56">
+        <v>72.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57">
         <v>58.71</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58">
         <v>56.86</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>55.15</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D60">
         <v>56.25</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>55.32</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>51.65</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63">
         <v>41.53</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>62.15</v>
       </c>
       <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <v>58.71</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66">
+        <v>56.86</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>55.15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>56.25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>55.32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70">
+        <v>51.65</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>41.53</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
         <v>59</v>
+      </c>
+      <c r="D72">
+        <v>62.15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>76.33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>159</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>162.71</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>139.57</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>95.14</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>98.70999999999999</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>47.57</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>40.43</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>15.71</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>22.29</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>12.29</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>10.57</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>5.29</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>8.140000000000001</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>5.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>6.86</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>6.43</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>6.29</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>4.43</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>7.29</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>24.71</v>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>17.29</v>
@@ -1104,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>26.71</v>
@@ -1124,7 +1130,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>31.14</v>
@@ -1144,7 +1150,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>51.43</v>
@@ -1164,7 +1170,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>57.14</v>
@@ -1184,7 +1190,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>72.56999999999999</v>
@@ -1204,7 +1210,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>76.86</v>
@@ -1224,7 +1230,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>87.70999999999999</v>
@@ -1244,7 +1250,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>108.57</v>
@@ -1264,7 +1270,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>114.86</v>
@@ -1284,7 +1290,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>94.70999999999999</v>
@@ -1304,7 +1310,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>124.71</v>
@@ -1324,7 +1330,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1332,25 +1338,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D38">
         <v>60.15</v>
       </c>
       <c r="E38">
-        <v>105.85</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J38">
-        <v>105.85</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="K38">
-        <v>63.76</v>
+        <v>60.65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,25 +1364,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D39">
         <v>31.78</v>
       </c>
       <c r="E39">
-        <v>113.65</v>
+        <v>110.22</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J39">
-        <v>109.75</v>
+        <v>101.46</v>
       </c>
       <c r="K39">
-        <v>70.95999999999999</v>
+        <v>69.13</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,13 +1390,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>144.86</v>
       </c>
       <c r="D40">
         <v>58.71</v>
       </c>
+      <c r="E40">
+        <v>86.15000000000001</v>
+      </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>96.36</v>
+      </c>
+      <c r="K40">
+        <v>65.91</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,13 +1416,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>133.43</v>
       </c>
       <c r="D41">
         <v>56.86</v>
       </c>
+      <c r="E41">
+        <v>76.56999999999999</v>
+      </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>91.41</v>
+      </c>
+      <c r="K41">
+        <v>63.78</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,13 +1442,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>55.15</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1426,13 +1456,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>56.25</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,13 +1470,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>55.32</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1454,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1468,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1482,25 +1512,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D47">
         <v>60.15</v>
       </c>
       <c r="E47">
-        <v>105.85</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J47">
-        <v>108.45</v>
+        <v>91.67</v>
       </c>
       <c r="K47">
-        <v>68.56</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1508,25 +1538,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D48">
         <v>31.78</v>
       </c>
       <c r="E48">
-        <v>113.65</v>
+        <v>110.22</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J48">
-        <v>109.75</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="K48">
-        <v>70.95999999999999</v>
+        <v>65.56999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1534,13 +1564,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>144.86</v>
       </c>
       <c r="D49">
         <v>58.71</v>
       </c>
+      <c r="E49">
+        <v>86.15000000000001</v>
+      </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J49">
+        <v>93.53</v>
+      </c>
+      <c r="K49">
+        <v>64.7</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1548,13 +1590,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>133.43</v>
       </c>
       <c r="D50">
         <v>56.86</v>
       </c>
+      <c r="E50">
+        <v>76.56999999999999</v>
+      </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J50">
+        <v>91.41</v>
+      </c>
+      <c r="K50">
+        <v>63.78</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1562,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>55.15</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1576,13 +1630,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>56.25</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1590,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>55.32</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1604,13 +1658,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1618,13 +1672,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1632,25 +1686,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D56">
         <v>31.78</v>
       </c>
       <c r="E56">
-        <v>113.65</v>
+        <v>110.22</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J56">
-        <v>110.53</v>
+        <v>93.5</v>
       </c>
       <c r="K56">
-        <v>72.39</v>
+        <v>65.31999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1658,13 +1712,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>144.86</v>
       </c>
       <c r="D57">
         <v>58.71</v>
       </c>
+      <c r="E57">
+        <v>86.15000000000001</v>
+      </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J57">
+        <v>92.77</v>
+      </c>
+      <c r="K57">
+        <v>64.73</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1672,13 +1738,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>133.43</v>
       </c>
       <c r="D58">
         <v>56.86</v>
       </c>
+      <c r="E58">
+        <v>76.56999999999999</v>
+      </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J58">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="K58">
+        <v>64.06999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1686,13 +1764,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>55.15</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1700,13 +1778,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>56.25</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1714,13 +1792,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>55.32</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1728,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>51.65</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1742,13 +1820,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>41.53</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1756,139 +1834,301 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>62.15</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>144.86</v>
       </c>
       <c r="D65">
         <v>58.71</v>
       </c>
+      <c r="E65">
+        <v>86.15000000000001</v>
+      </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <v>90.87</v>
+      </c>
+      <c r="K65">
+        <v>63.68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C66">
+        <v>133.43</v>
       </c>
       <c r="D66">
         <v>56.86</v>
       </c>
+      <c r="E66">
+        <v>76.56999999999999</v>
+      </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <v>89.77</v>
+      </c>
+      <c r="K66">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D67">
         <v>55.15</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>56.25</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>55.32</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <v>51.65</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D71">
         <v>41.53</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>62.15</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>76.33</v>
       </c>
       <c r="F73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74">
+        <v>133.43</v>
+      </c>
+      <c r="D74">
+        <v>44.77</v>
+      </c>
+      <c r="E74">
+        <v>88.66</v>
+      </c>
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74">
+        <v>89.69</v>
+      </c>
+      <c r="K74">
+        <v>63.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75">
+        <v>43.25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>44.26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>43.83</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78">
+        <v>40.39</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79">
+        <v>32</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80">
+        <v>55.62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
         <v>61</v>
+      </c>
+      <c r="D81">
+        <v>69.17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82">
+        <v>73.11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1133,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1153,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1173,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1193,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1213,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1233,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1253,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1273,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1293,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1313,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1333,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1353,7 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J38">
         <v>92.70999999999999</v>
@@ -1376,7 +1379,7 @@
         <v>110.22</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J39">
         <v>101.46</v>
@@ -1402,7 +1405,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J40">
         <v>96.36</v>
@@ -1428,7 +1431,7 @@
         <v>76.56999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J41">
         <v>91.41</v>
@@ -1448,7 +1451,7 @@
         <v>55.15</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1462,7 +1465,7 @@
         <v>56.25</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1476,7 +1479,7 @@
         <v>55.32</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1490,7 +1493,7 @@
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1504,7 +1507,7 @@
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1524,7 +1527,7 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J47">
         <v>91.67</v>
@@ -1550,7 +1553,7 @@
         <v>110.22</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J48">
         <v>94.76000000000001</v>
@@ -1576,7 +1579,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J49">
         <v>93.53</v>
@@ -1602,7 +1605,7 @@
         <v>76.56999999999999</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J50">
         <v>91.41</v>
@@ -1622,7 +1625,7 @@
         <v>55.15</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1636,7 +1639,7 @@
         <v>56.25</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1650,7 +1653,7 @@
         <v>55.32</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1664,7 +1667,7 @@
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1678,7 +1681,7 @@
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1698,7 +1701,7 @@
         <v>110.22</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J56">
         <v>93.5</v>
@@ -1724,7 +1727,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J57">
         <v>92.77</v>
@@ -1750,7 +1753,7 @@
         <v>76.56999999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J58">
         <v>91.29000000000001</v>
@@ -1770,7 +1773,7 @@
         <v>55.15</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1784,7 +1787,7 @@
         <v>56.25</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1798,7 +1801,7 @@
         <v>55.32</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1812,7 +1815,7 @@
         <v>51.65</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1826,7 +1829,7 @@
         <v>41.53</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1840,7 +1843,7 @@
         <v>62.15</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1860,7 +1863,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J65">
         <v>90.87</v>
@@ -1886,7 +1889,7 @@
         <v>76.56999999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J66">
         <v>89.77</v>
@@ -1906,7 +1909,7 @@
         <v>55.15</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1920,7 +1923,7 @@
         <v>56.25</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1934,7 +1937,7 @@
         <v>55.32</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1948,7 +1951,7 @@
         <v>51.65</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1962,7 +1965,7 @@
         <v>41.53</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1976,7 +1979,7 @@
         <v>62.15</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1990,7 +1993,7 @@
         <v>76.33</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2010,7 +2013,7 @@
         <v>88.66</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J74">
         <v>89.69</v>
@@ -2030,7 +2033,7 @@
         <v>43.25</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2044,7 +2047,7 @@
         <v>44.26</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2058,7 +2061,7 @@
         <v>43.83</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2072,7 +2075,7 @@
         <v>40.39</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2086,7 +2089,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2100,7 +2103,7 @@
         <v>55.62</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2114,7 +2117,7 @@
         <v>69.17</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2128,7 +2131,133 @@
         <v>73.11</v>
       </c>
       <c r="F82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>43.25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>44.26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85">
+        <v>43.83</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>40.39</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>55.62</v>
+      </c>
+      <c r="F88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89">
+        <v>69.17</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90">
+        <v>73.11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
         <v>63</v>
+      </c>
+      <c r="D91">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>159</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>162.71</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>139.57</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>95.14</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>98.70999999999999</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>47.57</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>40.43</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>15.71</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>22.29</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>12.29</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>10.57</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>5.29</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>8.140000000000001</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>5.43</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>6.86</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>6.43</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>6.29</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>4.43</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>7.29</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>24.71</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>17.29</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>26.71</v>
@@ -1133,7 +1139,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>31.14</v>
@@ -1153,7 +1159,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>51.43</v>
@@ -1173,7 +1179,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>57.14</v>
@@ -1193,7 +1199,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>72.56999999999999</v>
@@ -1213,7 +1219,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>76.86</v>
@@ -1233,7 +1239,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>87.70999999999999</v>
@@ -1253,7 +1259,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>108.57</v>
@@ -1273,7 +1279,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>114.86</v>
@@ -1293,7 +1299,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>94.70999999999999</v>
@@ -1313,7 +1319,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>124.71</v>
@@ -1333,7 +1339,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>152.86</v>
@@ -1353,7 +1359,7 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>92.70999999999999</v>
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>142</v>
@@ -1379,7 +1385,7 @@
         <v>110.22</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>101.46</v>
@@ -1393,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>144.86</v>
@@ -1405,7 +1411,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40">
         <v>96.36</v>
@@ -1419,25 +1425,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D41">
         <v>56.86</v>
       </c>
       <c r="E41">
-        <v>76.56999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
-        <v>91.41</v>
+        <v>92.55</v>
       </c>
       <c r="K41">
-        <v>63.78</v>
+        <v>64.13</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1445,13 +1451,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>106</v>
       </c>
       <c r="D42">
         <v>55.15</v>
       </c>
+      <c r="E42">
+        <v>50.85</v>
+      </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J42">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="K42">
+        <v>60.9</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1459,13 +1477,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>76.86</v>
       </c>
       <c r="D43">
         <v>56.25</v>
       </c>
+      <c r="E43">
+        <v>20.61</v>
+      </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J43">
+        <v>73.61</v>
+      </c>
+      <c r="K43">
+        <v>55.22</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,13 +1503,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>55.32</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1487,13 +1517,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1501,13 +1531,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1515,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>152.86</v>
@@ -1527,13 +1557,13 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
-        <v>91.67</v>
+        <v>76.34</v>
       </c>
       <c r="K47">
-        <v>63.16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1541,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>142</v>
@@ -1553,13 +1583,13 @@
         <v>110.22</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
-        <v>94.76000000000001</v>
+        <v>80.58</v>
       </c>
       <c r="K48">
-        <v>65.56999999999999</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1567,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>144.86</v>
@@ -1579,13 +1609,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
-        <v>93.53</v>
+        <v>81.2</v>
       </c>
       <c r="K49">
-        <v>64.7</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1593,25 +1623,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>56.86</v>
       </c>
       <c r="E50">
-        <v>76.56999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50">
-        <v>91.41</v>
+        <v>81.19</v>
       </c>
       <c r="K50">
-        <v>63.78</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1619,13 +1649,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>106</v>
       </c>
       <c r="D51">
         <v>55.15</v>
       </c>
+      <c r="E51">
+        <v>50.85</v>
+      </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J51">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="K51">
+        <v>57.8</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1633,13 +1675,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>76.86</v>
       </c>
       <c r="D52">
         <v>56.25</v>
       </c>
+      <c r="E52">
+        <v>20.61</v>
+      </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J52">
+        <v>73.61</v>
+      </c>
+      <c r="K52">
+        <v>55.22</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1647,13 +1701,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>55.32</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1661,13 +1715,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1675,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1689,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>142</v>
@@ -1701,13 +1755,13 @@
         <v>110.22</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J56">
-        <v>93.5</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="K56">
-        <v>65.31999999999999</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1715,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>144.86</v>
@@ -1727,13 +1781,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J57">
-        <v>92.77</v>
+        <v>77.12</v>
       </c>
       <c r="K57">
-        <v>64.73</v>
+        <v>57.13</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1741,25 +1795,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D58">
         <v>56.86</v>
       </c>
       <c r="E58">
-        <v>76.56999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J58">
-        <v>91.29000000000001</v>
+        <v>77.39</v>
       </c>
       <c r="K58">
-        <v>64.06999999999999</v>
+        <v>57.24</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1767,13 +1821,25 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>106</v>
       </c>
       <c r="D59">
         <v>55.15</v>
       </c>
+      <c r="E59">
+        <v>50.85</v>
+      </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>75.73</v>
+      </c>
+      <c r="K59">
+        <v>56.66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1781,13 +1847,25 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>76.86</v>
       </c>
       <c r="D60">
         <v>56.25</v>
       </c>
+      <c r="E60">
+        <v>20.61</v>
+      </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J60">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="K60">
+        <v>54.9</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1795,13 +1873,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>55.32</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1809,13 +1887,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>51.65</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1823,13 +1901,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>41.53</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1837,13 +1915,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>62.15</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1851,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>144.86</v>
@@ -1863,13 +1941,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J65">
-        <v>90.87</v>
+        <v>73.25</v>
       </c>
       <c r="K65">
-        <v>63.68</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1877,25 +1955,25 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D66">
         <v>56.86</v>
       </c>
       <c r="E66">
-        <v>76.56999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J66">
-        <v>89.77</v>
+        <v>73.67</v>
       </c>
       <c r="K66">
-        <v>63.2</v>
+        <v>55.35</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1903,13 +1981,25 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>106</v>
       </c>
       <c r="D67">
         <v>55.15</v>
       </c>
+      <c r="E67">
+        <v>50.85</v>
+      </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>72.52</v>
+      </c>
+      <c r="K67">
+        <v>54.98</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1917,13 +2007,25 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>76.86</v>
       </c>
       <c r="D68">
         <v>56.25</v>
       </c>
+      <c r="E68">
+        <v>20.61</v>
+      </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <v>70.05</v>
+      </c>
+      <c r="K68">
+        <v>53.64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1931,13 +2033,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69">
         <v>55.32</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1945,13 +2047,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <v>51.65</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1959,13 +2061,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71">
         <v>41.53</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1973,13 +2075,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D72">
         <v>62.15</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1987,13 +2089,13 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D73">
         <v>76.33</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2001,25 +2103,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>44.77</v>
       </c>
       <c r="E74">
-        <v>88.66</v>
+        <v>93.23</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J74">
-        <v>89.69</v>
+        <v>71.11</v>
       </c>
       <c r="K74">
-        <v>63.43</v>
+        <v>54.27</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2027,13 +2129,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>106</v>
       </c>
       <c r="D75">
         <v>43.25</v>
       </c>
+      <c r="E75">
+        <v>62.75</v>
+      </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J75">
+        <v>70.73999999999999</v>
+      </c>
+      <c r="K75">
+        <v>54.49</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2041,13 +2155,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>76.86</v>
       </c>
       <c r="D76">
         <v>44.26</v>
       </c>
+      <c r="E76">
+        <v>32.59</v>
+      </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J76">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="K76">
+        <v>53.98</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2055,13 +2181,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77">
         <v>43.83</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2069,13 +2195,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78">
         <v>40.39</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2083,13 +2209,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2097,167 +2223,329 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D80">
         <v>55.62</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D81">
         <v>69.17</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82">
         <v>73.11</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>106</v>
       </c>
       <c r="D83">
         <v>43.25</v>
       </c>
+      <c r="E83">
+        <v>62.75</v>
+      </c>
       <c r="F83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="J83">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="K83">
+        <v>54.19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C84">
+        <v>76.86</v>
       </c>
       <c r="D84">
         <v>44.26</v>
       </c>
+      <c r="E84">
+        <v>32.59</v>
+      </c>
       <c r="F84" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="J84">
+        <v>67.5</v>
+      </c>
+      <c r="K84">
+        <v>53.74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D85">
         <v>43.83</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D86">
         <v>40.39</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87">
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88">
         <v>55.62</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <v>69.17</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D90">
         <v>73.11</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D91">
         <v>78</v>
       </c>
       <c r="F91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92">
+        <v>76.86</v>
+      </c>
+      <c r="D92">
+        <v>44.26</v>
+      </c>
+      <c r="E92">
+        <v>32.59</v>
+      </c>
+      <c r="F92" t="s">
+        <v>66</v>
+      </c>
+      <c r="J92">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="K92">
+        <v>53.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>43.83</v>
+      </c>
+      <c r="F93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>40.39</v>
+      </c>
+      <c r="F94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <v>55.62</v>
+      </c>
+      <c r="F96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>69.17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98">
+        <v>73.11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
         <v>64</v>
+      </c>
+      <c r="D99">
+        <v>78.51000000000001</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="F100" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="70">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -212,6 +215,12 @@
   </si>
   <si>
     <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
+  </si>
+  <si>
+    <t>18 Apr -- 24 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>159</v>
@@ -630,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>0.83</v>
@@ -647,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>162.71</v>
@@ -659,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>139.57</v>
@@ -679,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>95.14</v>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -719,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>98.70999999999999</v>
@@ -739,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>47.57</v>
@@ -759,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>40.43</v>
@@ -779,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>15.71</v>
@@ -799,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>22.29</v>
@@ -819,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>12.29</v>
@@ -839,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10.57</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>5.29</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>8.140000000000001</v>
@@ -899,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>5.43</v>
@@ -919,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>6.86</v>
@@ -939,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>6.43</v>
@@ -959,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>6.29</v>
@@ -979,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>4.43</v>
@@ -999,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1019,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1039,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>7.29</v>
@@ -1059,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>25</v>
@@ -1079,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>24.71</v>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>17.29</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>26.71</v>
@@ -1139,7 +1148,7 @@
         <v>12.94</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1156,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>31.14</v>
@@ -1159,7 +1168,7 @@
         <v>19.58</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>51.43</v>
@@ -1179,7 +1188,7 @@
         <v>33.46</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>57.14</v>
@@ -1199,7 +1208,7 @@
         <v>50.92</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>72.56999999999999</v>
@@ -1219,7 +1228,7 @@
         <v>66.29000000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>76.86</v>
@@ -1239,7 +1248,7 @@
         <v>70.93000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>87.70999999999999</v>
@@ -1259,7 +1268,7 @@
         <v>57.41</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>108.57</v>
@@ -1279,7 +1288,7 @@
         <v>89.33</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>114.86</v>
@@ -1299,7 +1308,7 @@
         <v>76.05</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>94.70999999999999</v>
@@ -1319,7 +1328,7 @@
         <v>68.04000000000001</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>124.71</v>
@@ -1339,7 +1348,7 @@
         <v>99.29000000000001</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>152.86</v>
@@ -1359,7 +1368,7 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J38">
         <v>92.70999999999999</v>
@@ -1373,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>142</v>
@@ -1385,7 +1394,7 @@
         <v>110.22</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J39">
         <v>101.46</v>
@@ -1399,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>144.86</v>
@@ -1411,7 +1420,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J40">
         <v>96.36</v>
@@ -1425,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>138</v>
@@ -1437,7 +1446,7 @@
         <v>81.14</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J41">
         <v>92.55</v>
@@ -1451,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>106</v>
@@ -1463,7 +1472,7 @@
         <v>50.85</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J42">
         <v>84.20999999999999</v>
@@ -1477,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>76.86</v>
@@ -1489,7 +1498,7 @@
         <v>20.61</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J43">
         <v>73.61</v>
@@ -1503,13 +1512,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>56.14</v>
       </c>
       <c r="D44">
         <v>55.32</v>
       </c>
+      <c r="E44">
+        <v>0.83</v>
+      </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>63.22</v>
+      </c>
+      <c r="K44">
+        <v>47.54</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1517,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>51.65</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1531,13 +1552,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>41.53</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1545,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>152.86</v>
@@ -1557,13 +1578,13 @@
         <v>92.70999999999999</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J47">
-        <v>76.34</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="K47">
-        <v>56</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1571,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>142</v>
@@ -1583,13 +1604,13 @@
         <v>110.22</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J48">
-        <v>80.58</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="K48">
-        <v>58.7</v>
+        <v>52.34</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1597,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>144.86</v>
@@ -1609,13 +1630,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J49">
-        <v>81.2</v>
+        <v>73.16</v>
       </c>
       <c r="K49">
-        <v>58.79</v>
+        <v>53.05</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1623,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>138</v>
@@ -1635,13 +1656,13 @@
         <v>81.14</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J50">
-        <v>81.19</v>
+        <v>73.88</v>
       </c>
       <c r="K50">
-        <v>58.79</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1649,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>106</v>
@@ -1661,13 +1682,13 @@
         <v>50.85</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J51">
-        <v>78.43000000000001</v>
+        <v>71.97</v>
       </c>
       <c r="K51">
-        <v>57.8</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1675,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>76.86</v>
@@ -1687,13 +1708,13 @@
         <v>20.61</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J52">
-        <v>73.61</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="K52">
-        <v>55.22</v>
+        <v>51.09</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1701,13 +1722,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>56.14</v>
       </c>
       <c r="D53">
         <v>55.32</v>
       </c>
+      <c r="E53">
+        <v>0.83</v>
+      </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J53">
+        <v>63.22</v>
+      </c>
+      <c r="K53">
+        <v>47.54</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1715,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>51.65</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1729,13 +1762,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>41.53</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1743,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>142</v>
@@ -1755,13 +1788,13 @@
         <v>110.22</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J56">
-        <v>76.43000000000001</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="K56">
-        <v>56.94</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1769,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>144.86</v>
@@ -1781,13 +1814,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J57">
-        <v>77.12</v>
+        <v>67.59</v>
       </c>
       <c r="K57">
-        <v>57.13</v>
+        <v>50.17</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1795,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -1807,13 +1840,13 @@
         <v>81.14</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J58">
-        <v>77.39</v>
+        <v>68.38</v>
       </c>
       <c r="K58">
-        <v>57.24</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1821,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>106</v>
@@ -1833,13 +1866,13 @@
         <v>50.85</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J59">
-        <v>75.73</v>
+        <v>67.41</v>
       </c>
       <c r="K59">
-        <v>56.66</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1847,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>76.86</v>
@@ -1859,13 +1892,13 @@
         <v>20.61</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J60">
-        <v>72.48999999999999</v>
+        <v>64.95</v>
       </c>
       <c r="K60">
-        <v>54.9</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1873,13 +1906,25 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>56.14</v>
       </c>
       <c r="D61">
         <v>55.32</v>
       </c>
+      <c r="E61">
+        <v>0.83</v>
+      </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J61">
+        <v>61.74</v>
+      </c>
+      <c r="K61">
+        <v>46.89</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1887,13 +1932,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>51.65</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1901,13 +1946,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>41.53</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1915,13 +1960,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64">
         <v>62.15</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1929,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65">
         <v>144.86</v>
@@ -1941,13 +1986,13 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J65">
-        <v>73.25</v>
+        <v>62.9</v>
       </c>
       <c r="K65">
-        <v>55.16</v>
+        <v>47.49</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1955,7 +2000,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -1967,13 +2012,13 @@
         <v>81.14</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J66">
-        <v>73.67</v>
+        <v>63.73</v>
       </c>
       <c r="K66">
-        <v>55.35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1981,7 +2026,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67">
         <v>106</v>
@@ -1993,13 +2038,13 @@
         <v>50.85</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J67">
-        <v>72.52</v>
+        <v>63.17</v>
       </c>
       <c r="K67">
-        <v>54.98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2007,7 +2052,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68">
         <v>76.86</v>
@@ -2019,13 +2064,13 @@
         <v>20.61</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J68">
-        <v>70.05</v>
+        <v>61.4</v>
       </c>
       <c r="K68">
-        <v>53.64</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2033,13 +2078,25 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>56.14</v>
       </c>
       <c r="D69">
         <v>55.32</v>
       </c>
+      <c r="E69">
+        <v>0.83</v>
+      </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <v>58.98</v>
+      </c>
+      <c r="K69">
+        <v>45.29</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2047,13 +2104,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>51.65</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2061,13 +2118,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D71">
         <v>41.53</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2075,13 +2132,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>62.15</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2089,13 +2146,13 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <v>76.33</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2103,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74">
         <v>138</v>
@@ -2115,13 +2172,13 @@
         <v>93.23</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J74">
-        <v>71.11</v>
+        <v>60.29</v>
       </c>
       <c r="K74">
-        <v>54.27</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2129,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75">
         <v>106</v>
@@ -2141,13 +2198,13 @@
         <v>62.75</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J75">
-        <v>70.73999999999999</v>
+        <v>60.39</v>
       </c>
       <c r="K75">
-        <v>54.49</v>
+        <v>46.63</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2155,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76">
         <v>76.86</v>
@@ -2167,13 +2224,13 @@
         <v>32.59</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J76">
-        <v>69.15000000000001</v>
+        <v>59.39</v>
       </c>
       <c r="K76">
-        <v>53.98</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2181,13 +2238,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C77">
+        <v>56.14</v>
       </c>
       <c r="D77">
         <v>43.83</v>
       </c>
+      <c r="E77">
+        <v>12.32</v>
+      </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J77">
+        <v>57.77</v>
+      </c>
+      <c r="K77">
+        <v>45.63</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2195,13 +2264,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>40.39</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2209,13 +2278,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79">
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2223,13 +2292,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D80">
         <v>55.62</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2237,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D81">
         <v>69.17</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2251,13 +2320,13 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <v>73.11</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2265,7 +2334,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83">
         <v>106</v>
@@ -2277,13 +2346,13 @@
         <v>62.75</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J83">
-        <v>68.90000000000001</v>
+        <v>57.94</v>
       </c>
       <c r="K83">
-        <v>54.19</v>
+        <v>46.09</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2291,7 +2360,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84">
         <v>76.86</v>
@@ -2303,13 +2372,13 @@
         <v>32.59</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J84">
-        <v>67.5</v>
+        <v>57.12</v>
       </c>
       <c r="K84">
-        <v>53.74</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2317,13 +2386,25 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C85">
+        <v>56.14</v>
       </c>
       <c r="D85">
         <v>43.83</v>
       </c>
+      <c r="E85">
+        <v>12.32</v>
+      </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J85">
+        <v>55.72</v>
+      </c>
+      <c r="K85">
+        <v>45.22</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2331,13 +2412,13 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86">
         <v>40.39</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2345,13 +2426,13 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87">
         <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2359,13 +2440,13 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D88">
         <v>55.62</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2373,13 +2454,13 @@
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89">
         <v>69.17</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2387,13 +2468,13 @@
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <v>73.11</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2401,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D91">
         <v>78</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2415,7 +2496,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>76.86</v>
@@ -2427,13 +2508,13 @@
         <v>32.59</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J92">
-        <v>66.20999999999999</v>
+        <v>55.02</v>
       </c>
       <c r="K92">
-        <v>53.32</v>
+        <v>45.13</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2441,13 +2522,25 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>56.14</v>
       </c>
       <c r="D93">
         <v>43.83</v>
       </c>
+      <c r="E93">
+        <v>12.32</v>
+      </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J93">
+        <v>53.76</v>
+      </c>
+      <c r="K93">
+        <v>44.45</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2455,13 +2548,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94">
         <v>40.39</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2469,13 +2562,13 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D95">
         <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2483,13 +2576,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>55.62</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2497,13 +2590,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D97">
         <v>69.17</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2511,13 +2604,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98">
         <v>73.11</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2525,13 +2618,13 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <v>78.51000000000001</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2539,13 +2632,139 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D100">
         <v>78.23999999999999</v>
       </c>
       <c r="F100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>40.39</v>
+      </c>
+      <c r="F101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>55.62</v>
+      </c>
+      <c r="F103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104">
+        <v>69.17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105">
+        <v>73.11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106">
+        <v>78.51000000000001</v>
+      </c>
+      <c r="F106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
         <v>66</v>
+      </c>
+      <c r="D107">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="F107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108">
+        <v>75.37</v>
+      </c>
+      <c r="F108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109">
+        <v>74.83</v>
+      </c>
+      <c r="F109" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
